--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow_weight_vote.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant_warm_glowdonation</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,97 +407,118 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0349204718605695</v>
+        <v>0.0345677812512016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00992667590086509</v>
+        <v>0.00955330665890686</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0599142678202739</v>
+        <v>0.0595822558434964</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675876450707568</v>
+        <v>0.0675876450707566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0333189915956316</v>
+        <v>0.0333189915956314</v>
       </c>
       <c r="D3" t="n">
         <v>0.101856298545882</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0391366742932621</v>
+        <v>0.0391366742932622</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0425780096914379</v>
+        <v>-0.042578009691438</v>
       </c>
       <c r="D4" t="n">
         <v>0.120851358277962</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0947531111645337</v>
+        <v>0.0947531111645335</v>
       </c>
       <c r="C5" t="n">
         <v>0.0191488053021976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17035741702687</v>
+        <v>0.170357417026869</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0175119326214762</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0577422545335325</v>
+        <v>-0.0577422545335324</v>
       </c>
       <c r="D6" t="n">
         <v>0.0927661197764848</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.103853982432025</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00231517261693424</v>
+        <v>-0.00231517261693412</v>
       </c>
       <c r="D7" t="n">
         <v>0.210023137480985</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456890966545246</v>
+        <v>0.0456890966545247</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0503919462261996</v>
@@ -499,61 +526,76 @@
       <c r="D8" t="n">
         <v>0.141770139535249</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0834478409431802</v>
+        <v>0.0834478409431803</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000972477118733051</v>
+        <v>-0.000972477118733037</v>
       </c>
       <c r="D9" t="n">
         <v>0.167868159005094</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>0.0490455807248947</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0594078178313193</v>
+        <v>-0.0594078178313194</v>
       </c>
       <c r="D10" t="n">
         <v>0.157498979281109</v>
       </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00999789378044391</v>
+        <v>0.0101133748194984</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0429494641031228</v>
+        <v>-0.0428318682783557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0629452516640106</v>
+        <v>0.0630586179173526</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00864389755248719</v>
+        <v>0.00777904174477409</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0356713178771146</v>
+        <v>-0.0365787724650717</v>
       </c>
       <c r="D12" t="n">
-        <v>0.052959112982089</v>
+        <v>0.0521368559546199</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
